--- a/aug_pc_result/2026_Feb_28_17_42_00_d_separation_spearman_pc_gt_graph_20_1508438/aug_pc_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_28_17_42_00_d_separation_spearman_pc_gt_graph_20_1508438/aug_pc_eval_res.xlsx
@@ -592,7 +592,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
